--- a/fab/JLC-BOM.xlsx
+++ b/fab/JLC-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\SMD GCCPCB\5V PCB\GCCPCB v2.0 Beta\jlcpcb\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\Products\Active\Model_S\Model_S_v2.1\jlcpcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7A38F-48B8-44BB-99BD-8952C117C0FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E999192-0341-4D15-AC18-18A55986DD19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{1AC8F75A-FFE4-4654-9B90-B15C2F506A09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1AC8F75A-FFE4-4654-9B90-B15C2F506A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Comment</t>
   </si>
@@ -126,9 +129,6 @@
     <t>SOD-123</t>
   </si>
   <si>
-    <t>C223608</t>
-  </si>
-  <si>
     <t>C49217</t>
   </si>
   <si>
@@ -202,6 +202,69 @@
   </si>
   <si>
     <t>R1-3, R6-7</t>
+  </si>
+  <si>
+    <t>C2346 </t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>C557656</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>C456013</t>
+  </si>
+  <si>
+    <t>DIP+SMD </t>
+  </si>
+  <si>
+    <t>USB-A-TH_USB-M-1_C2346</t>
+  </si>
+  <si>
+    <t>CONN-TH_XY350V-3.5-4P</t>
+  </si>
+  <si>
+    <t>USB-C Female</t>
+  </si>
+  <si>
+    <t>USB-A Female</t>
+  </si>
+  <si>
+    <t>Screw Terminals</t>
+  </si>
+  <si>
+    <t>J9-14</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>2x10 Pin Headers</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>2x3 Pin Headers</t>
+  </si>
+  <si>
+    <t>C65114</t>
+  </si>
+  <si>
+    <t>HDR-TH_6P-P2.54-V-R2-C3-S2.54</t>
+  </si>
+  <si>
+    <t>C130880</t>
+  </si>
+  <si>
+    <t>C124359</t>
+  </si>
+  <si>
+    <t>HDR-TH_20P-P2.54-V-M-R2-C10-S2.54</t>
   </si>
 </sst>
 </file>
@@ -644,17 +707,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4A020-DFA8-4354-B4DE-8948453FA503}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -684,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,21 +761,21 @@
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +803,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,140 +817,210 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C10:C11 C2:C5 C6 C8" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:C5 C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/fab/JLC-BOM.xlsx
+++ b/fab/JLC-BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\Products\Active\Model_S\Model_S_v2.1\jlcpcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\Products\Active\Model_S\Model_S_v2.2\jlcpcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E999192-0341-4D15-AC18-18A55986DD19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A475534-9F73-4EC5-AFFD-82F3276C6C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1AC8F75A-FFE4-4654-9B90-B15C2F506A09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>Comment</t>
   </si>
@@ -48,30 +48,15 @@
     <t>LCSC Part #</t>
   </si>
   <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>22pF</t>
   </si>
   <si>
-    <t>C9, C10</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
     <t>D1, D2</t>
   </si>
   <si>
@@ -93,18 +78,12 @@
     <t>10KΩ</t>
   </si>
   <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
     <t>22Ω</t>
   </si>
   <si>
     <t>SW_PUSH</t>
   </si>
   <si>
-    <t>SW2</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -117,21 +96,12 @@
     <t>X1</t>
   </si>
   <si>
-    <t>WSON-6__EP_2.0x2.0x0.65P</t>
-  </si>
-  <si>
-    <t>C59567</t>
-  </si>
-  <si>
     <t>0805</t>
   </si>
   <si>
     <t>SOD-123</t>
   </si>
   <si>
-    <t>C49217</t>
-  </si>
-  <si>
     <t>C1779</t>
   </si>
   <si>
@@ -147,9 +117,6 @@
     <t>C28323</t>
   </si>
   <si>
-    <t>C76793</t>
-  </si>
-  <si>
     <t>C52895</t>
   </si>
   <si>
@@ -168,9 +135,6 @@
     <t>VSSOP-10_3.0x3.0x0.5P</t>
   </si>
   <si>
-    <t>TPS61240DRVR</t>
-  </si>
-  <si>
     <t>TS3USB30EDGSR</t>
   </si>
   <si>
@@ -192,18 +156,12 @@
     <t> C44854</t>
   </si>
   <si>
-    <t>C4-8, C12</t>
-  </si>
-  <si>
     <t> C318884</t>
   </si>
   <si>
     <t>SMD-SW-4_5.1x5.1x1.5</t>
   </si>
   <si>
-    <t>R1-3, R6-7</t>
-  </si>
-  <si>
     <t>C2346 </t>
   </si>
   <si>
@@ -213,24 +171,12 @@
     <t>C557656</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>C456013</t>
-  </si>
-  <si>
-    <t>DIP+SMD </t>
-  </si>
-  <si>
     <t>USB-A-TH_USB-M-1_C2346</t>
   </si>
   <si>
     <t>CONN-TH_XY350V-3.5-4P</t>
   </si>
   <si>
-    <t>USB-C Female</t>
-  </si>
-  <si>
     <t>USB-A Female</t>
   </si>
   <si>
@@ -240,15 +186,9 @@
     <t>J9-14</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>2x10 Pin Headers</t>
   </si>
   <si>
-    <t>J8</t>
-  </si>
-  <si>
     <t>2x3 Pin Headers</t>
   </si>
   <si>
@@ -258,13 +198,103 @@
     <t>HDR-TH_6P-P2.54-V-R2-C3-S2.54</t>
   </si>
   <si>
-    <t>C130880</t>
-  </si>
-  <si>
     <t>C124359</t>
   </si>
   <si>
     <t>HDR-TH_20P-P2.54-V-M-R2-C10-S2.54</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C1, C3-5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7-11, C14</t>
+  </si>
+  <si>
+    <t>C12, C13</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>1x4 Pin Sockets</t>
+  </si>
+  <si>
+    <t>J1, J8</t>
+  </si>
+  <si>
+    <t>L2520</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>402KΩ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>100KΩ</t>
+  </si>
+  <si>
+    <t>R3-6, R9</t>
+  </si>
+  <si>
+    <t>R7, R8</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>TPS61230DRCR</t>
+  </si>
+  <si>
+    <t>VSON-10_EP_3.0x3.0x0.5P</t>
+  </si>
+  <si>
+    <t>C139626</t>
+  </si>
+  <si>
+    <t>C81143</t>
+  </si>
+  <si>
+    <t>C45783</t>
+  </si>
+  <si>
+    <t>C1710</t>
+  </si>
+  <si>
+    <t>C124413</t>
+  </si>
+  <si>
+    <t>HDR-TH_4P-P2.54-V</t>
+  </si>
+  <si>
+    <t>C171753</t>
+  </si>
+  <si>
+    <t>C17680</t>
+  </si>
+  <si>
+    <t>C17407</t>
   </si>
 </sst>
 </file>
@@ -707,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4A020-DFA8-4354-B4DE-8948453FA503}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -738,289 +768,331 @@
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>73</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C5 C6" numberStoredAsText="1"/>
+    <ignoredError sqref="C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/fab/JLC-BOM.xlsx
+++ b/fab/JLC-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\Products\Active\Model_S\Model_S_v2.2\jlcpcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\m2BACKUP\Desktop\projects\Products\Active\Model_S\Model_S_v2.3\jlcpcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A475534-9F73-4EC5-AFFD-82F3276C6C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E383A79-3A38-4865-8CE4-218A8B01FA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1AC8F75A-FFE4-4654-9B90-B15C2F506A09}"/>
+    <workbookView xWindow="-28920" yWindow="2940" windowWidth="29040" windowHeight="15840" xr2:uid="{1AC8F75A-FFE4-4654-9B90-B15C2F506A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>C28323</t>
   </si>
   <si>
-    <t>C52895</t>
-  </si>
-  <si>
     <t>SOT-23-3</t>
   </si>
   <si>
@@ -129,15 +126,6 @@
     <t>C17561</t>
   </si>
   <si>
-    <t>C131998</t>
-  </si>
-  <si>
-    <t>VSSOP-10_3.0x3.0x0.5P</t>
-  </si>
-  <si>
-    <t>TS3USB30EDGSR</t>
-  </si>
-  <si>
     <t>SMD-3225_4P</t>
   </si>
   <si>
@@ -234,9 +222,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>1x4 Pin Sockets</t>
-  </si>
-  <si>
     <t>J1, J8</t>
   </si>
   <si>
@@ -273,28 +258,43 @@
     <t>C139626</t>
   </si>
   <si>
-    <t>C81143</t>
-  </si>
-  <si>
     <t>C45783</t>
   </si>
   <si>
     <t>C1710</t>
   </si>
   <si>
-    <t>C124413</t>
+    <t>C171753</t>
+  </si>
+  <si>
+    <t>C17680</t>
+  </si>
+  <si>
+    <t>C17407</t>
+  </si>
+  <si>
+    <t>C73880</t>
+  </si>
+  <si>
+    <t>TS3USB30ERSWR</t>
+  </si>
+  <si>
+    <t>UQFN-10_1.4x1.8x0.4P</t>
+  </si>
+  <si>
+    <t>1x4 Pin Headers</t>
+  </si>
+  <si>
+    <t>C400505</t>
+  </si>
+  <si>
+    <t>C124378</t>
   </si>
   <si>
     <t>HDR-TH_4P-P2.54-V</t>
   </si>
   <si>
-    <t>C171753</t>
-  </si>
-  <si>
-    <t>C17680</t>
-  </si>
-  <si>
-    <t>C17407</t>
+    <t>C130880</t>
   </si>
 </sst>
 </file>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4A020-DFA8-4354-B4DE-8948453FA503}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -768,30 +768,30 @@
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
@@ -861,77 +861,77 @@
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,10 +942,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,38 +956,38 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,13 +1009,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1023,69 +1023,69 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
